--- a/Testing/TestCases_Login.xlsx
+++ b/Testing/TestCases_Login.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITI\Courses\7- QA\Workshop\TC\Login\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c.city\Documents\GitHub\Car-Purchasing\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BCA17A-BCF3-4CD8-B5A2-8F34401985C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="81">
   <si>
     <t>Test Title</t>
   </si>
@@ -70,12 +71,6 @@
 4-email already registered in database</t>
   </si>
   <si>
-    <t>1. Open Loing page
-2. Enter valid Email
-3. Enter valid Password
-4. Click Login</t>
-  </si>
-  <si>
     <t>Login successful and rediracted to car listing page</t>
   </si>
   <si>
@@ -135,180 +130,195 @@
 </t>
   </si>
   <si>
-    <t>1. Open Loing page
+    <t>Email field turn red and error message "invalid input" appears</t>
+  </si>
+  <si>
+    <t>Verifing Login fails when email is left blank</t>
+  </si>
+  <si>
+    <t>email: ""
+password: "valid@password"</t>
+  </si>
+  <si>
+    <t>email: " "
+password: "valid@password"</t>
+  </si>
+  <si>
+    <t>Verifing Login fails when email is only spaces</t>
+  </si>
+  <si>
+    <t>Verifing Login fails when email starts with special characters</t>
+  </si>
+  <si>
+    <t>email: "invalidgmail.com"
+password: "valid@password"</t>
+  </si>
+  <si>
+    <t>email: "invalid@gmailcom"
+password: "valid@password"</t>
+  </si>
+  <si>
+    <t>email: "@invalid@gmail.com"
+password: "valid@password"</t>
+  </si>
+  <si>
+    <t>Verifing Login fails when email starts with space</t>
+  </si>
+  <si>
+    <t>Verifing Login fails when email has space in the middle</t>
+  </si>
+  <si>
+    <t>Verifing Login fails when email starts with digits</t>
+  </si>
+  <si>
+    <t>email: "1registereduser@gmail.com"
+password: "valid@password"</t>
+  </si>
+  <si>
+    <t>email: "registereduser@gmail.com"
+password: "valid@password"</t>
+  </si>
+  <si>
+    <t>email: "registered user@gmail.com"
+password: "valid@password"</t>
+  </si>
+  <si>
+    <t>email: " registereduser@gmail.com"
+password: "valid@password"</t>
+  </si>
+  <si>
+    <t>Verifing Login fails when email not registered before</t>
+  </si>
+  <si>
+    <t>email: "nonregistered@gmail.com"
+password: "valid@password"</t>
+  </si>
+  <si>
+    <t>Verifing Login fails when entering password less than 8 characters</t>
+  </si>
+  <si>
+    <t>email: "registereduser@gmail.com"
+password: "1234"</t>
+  </si>
+  <si>
+    <t>password field turn red and error message "invalid input" appears</t>
+  </si>
+  <si>
+    <t>Verifing Login fails when entering password more than 20 characters</t>
+  </si>
+  <si>
+    <t>email: "registereduser@gmail.com"
+password: "longpasswordthatisverylong"</t>
+  </si>
+  <si>
+    <t>Verifing Login fails when leaving password field blank</t>
+  </si>
+  <si>
+    <t>email: "registereduser@gmail.com"
+password: ""</t>
+  </si>
+  <si>
+    <t>Verifing Login fails when entering password that contain spaces</t>
+  </si>
+  <si>
+    <t>email: "registereduser@gmail.com"
+password: "invalid password"</t>
+  </si>
+  <si>
+    <t>Verifing user can login when entering valid email and password that contains characters , digits and special characters</t>
+  </si>
+  <si>
+    <t>email: "registereduser@gmail.com"
+password: "valid@password2"</t>
+  </si>
+  <si>
+    <t>email: "registereduser22@gmail.com"
+password: "valid@password"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRS_001,SRS_011
+</t>
+  </si>
+  <si>
+    <t>SRS_001,SRS_012</t>
+  </si>
+  <si>
+    <t>SRS_002,SRS_012</t>
+  </si>
+  <si>
+    <t>SRS_003,SRS_012</t>
+  </si>
+  <si>
+    <t>SRS_004,SRS_012</t>
+  </si>
+  <si>
+    <t>SRS_005,SRS_012</t>
+  </si>
+  <si>
+    <t>SRS_006,SRS_011</t>
+  </si>
+  <si>
+    <t>SRS_007,SRS_012</t>
+  </si>
+  <si>
+    <t>SRS_008,SRS_012</t>
+  </si>
+  <si>
+    <t>SRS_009,SRS_012</t>
+  </si>
+  <si>
+    <t>SRS_010,SRS_012</t>
+  </si>
+  <si>
+    <t>1. Open Login page
+2. Enter valid Email
+3. Enter valid Password
+4. Click Login</t>
+  </si>
+  <si>
+    <t>1. Open Login page
 2. Enter invalid Email
 3. Enter valid Password
 4. Click Login</t>
   </si>
   <si>
-    <t>Email field turn red and error message "invalid input" appears</t>
-  </si>
-  <si>
-    <t>Verifing Login fails when email is left blank</t>
-  </si>
-  <si>
-    <t>1. Open Loing page
+    <t>1. Open Login page
 2. leave email blank
 3. Enter valid Password
 4. Click Login</t>
   </si>
   <si>
-    <t>email: ""
-password: "valid@password"</t>
-  </si>
-  <si>
-    <t>email: " "
-password: "valid@password"</t>
-  </si>
-  <si>
-    <t>Verifing Login fails when email is only spaces</t>
-  </si>
-  <si>
-    <t>Verifing Login fails when email starts with special characters</t>
-  </si>
-  <si>
-    <t>email: "invalidgmail.com"
-password: "valid@password"</t>
-  </si>
-  <si>
-    <t>email: "invalid@gmailcom"
-password: "valid@password"</t>
-  </si>
-  <si>
-    <t>email: "@invalid@gmail.com"
-password: "valid@password"</t>
-  </si>
-  <si>
-    <t>Verifing Login fails when email starts with space</t>
-  </si>
-  <si>
-    <t>Verifing Login fails when email has space in the middle</t>
-  </si>
-  <si>
-    <t>Verifing Login fails when email starts with digits</t>
-  </si>
-  <si>
-    <t>email: "1registereduser@gmail.com"
-password: "valid@password"</t>
-  </si>
-  <si>
-    <t>email: "registereduser@gmail.com"
-password: "valid@password"</t>
-  </si>
-  <si>
-    <t>email: "registered user@gmail.com"
-password: "valid@password"</t>
-  </si>
-  <si>
-    <t>email: " registereduser@gmail.com"
-password: "valid@password"</t>
-  </si>
-  <si>
-    <t>Verifing Login fails when email not registered before</t>
-  </si>
-  <si>
-    <t>1. Open Loing page
+    <t>1. Open Login page
 2. Enter not registered Email
 3. Enter valid Password
 4. Click Login</t>
   </si>
   <si>
-    <t>email: "nonregistered@gmail.com"
-password: "valid@password"</t>
-  </si>
-  <si>
-    <t>Verifing Login fails when entering password less than 8 characters</t>
-  </si>
-  <si>
-    <t>1. Open Loing page
+    <t>1. Open Login page
 2. Enter valid Email
 3. Enter invalid Password
 4. Click Login</t>
   </si>
   <si>
-    <t>email: "registereduser@gmail.com"
-password: "1234"</t>
-  </si>
-  <si>
-    <t>password field turn red and error message "invalid input" appears</t>
-  </si>
-  <si>
-    <t>Verifing Login fails when entering password more than 20 characters</t>
-  </si>
-  <si>
-    <t>email: "registereduser@gmail.com"
-password: "longpasswordthatisverylong"</t>
-  </si>
-  <si>
-    <t>Verifing Login fails when leaving password field blank</t>
-  </si>
-  <si>
-    <t>1. Open Loing page
+    <t>1. Open Login page
 2. Enter valid Email
 3. leave password blank
 4. Click Login</t>
   </si>
   <si>
-    <t>email: "registereduser@gmail.com"
-password: ""</t>
-  </si>
-  <si>
-    <t>Verifing Login fails when entering password that contain spaces</t>
-  </si>
-  <si>
-    <t>email: "registereduser@gmail.com"
-password: "invalid password"</t>
-  </si>
-  <si>
-    <t>Verifing user can login when entering valid email and password that contains characters , digits and special characters</t>
-  </si>
-  <si>
-    <t>email: "registereduser@gmail.com"
-password: "valid@password2"</t>
-  </si>
-  <si>
-    <t>email: "registereduser22@gmail.com"
-password: "valid@password"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRS_001,SRS_011
-</t>
-  </si>
-  <si>
-    <t>SRS_001,SRS_012</t>
-  </si>
-  <si>
-    <t>SRS_002,SRS_012</t>
-  </si>
-  <si>
-    <t>SRS_003,SRS_012</t>
-  </si>
-  <si>
-    <t>SRS_004,SRS_012</t>
-  </si>
-  <si>
-    <t>SRS_005,SRS_012</t>
-  </si>
-  <si>
-    <t>SRS_006,SRS_011</t>
-  </si>
-  <si>
-    <t>SRS_007,SRS_012</t>
-  </si>
-  <si>
-    <t>SRS_008,SRS_012</t>
-  </si>
-  <si>
-    <t>SRS_009,SRS_012</t>
-  </si>
-  <si>
-    <t>SRS_010,SRS_012</t>
+    <t>TC_Login_017</t>
+  </si>
+  <si>
+    <t>Verify that the password field masks user input by displaying '*****' characters when typing</t>
+  </si>
+  <si>
+    <t>SRS_013</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -517,107 +527,23 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -914,28 +840,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="46.109375" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" customWidth="1"/>
-    <col min="5" max="5" width="45.88671875" customWidth="1"/>
-    <col min="6" max="6" width="46.6640625" customWidth="1"/>
-    <col min="7" max="7" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="46.140625" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" customWidth="1"/>
+    <col min="5" max="5" width="45.85546875" customWidth="1"/>
+    <col min="6" max="6" width="46.7109375" customWidth="1"/>
+    <col min="7" max="7" width="38.85546875" customWidth="1"/>
     <col min="8" max="8" width="32" customWidth="1"/>
-    <col min="9" max="9" width="25.88671875" customWidth="1"/>
+    <col min="9" max="9" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -964,9 +890,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>67</v>
+    <row r="4" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>10</v>
@@ -978,14 +904,14 @@
         <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="H4" s="2" t="s">
         <v>7</v>
       </c>
@@ -993,10 +919,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>11</v>
@@ -1005,14 +931,14 @@
         <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="H5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1020,109 +946,109 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>68</v>
+    <row r="6" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="H7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="H9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1130,170 +1056,170 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="H11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="H12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="H13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="C14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="H14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>7</v>
@@ -1302,27 +1228,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
-        <v>74</v>
+    <row r="16" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>7</v>
@@ -1331,56 +1257,56 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
-        <v>75</v>
+    <row r="17" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>7</v>
@@ -1389,32 +1315,61 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
-        <v>77</v>
+    <row r="19" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I19" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1424,51 +1379,7 @@
     <mergeCell ref="A6:A10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="14" priority="19" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="20" operator="equal">
-      <formula>"Pending"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="21" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
-      <formula>"Pending"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7:I9 I11:I17">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
-      <formula>"Pending"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>"Pending"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5">
+  <conditionalFormatting sqref="I4:I17">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
@@ -1480,7 +1391,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I17" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Passed,Failed,Pending"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Testing/TestCases_Login.xlsx
+++ b/Testing/TestCases_Login.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arsan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F92250-6623-413D-8D55-28A3E364CFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10176" windowHeight="7608"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="82">
   <si>
     <t>Test Title</t>
   </si>
@@ -314,11 +313,14 @@
   <si>
     <t>Passed</t>
   </si>
+  <si>
+    <t>Failed</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -828,28 +830,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="D10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.5546875" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="46.140625" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" customWidth="1"/>
-    <col min="5" max="5" width="45.85546875" customWidth="1"/>
-    <col min="6" max="6" width="46.7109375" customWidth="1"/>
-    <col min="7" max="7" width="38.85546875" customWidth="1"/>
-    <col min="8" max="8" width="40.85546875" customWidth="1"/>
-    <col min="9" max="9" width="25.85546875" customWidth="1"/>
+    <col min="3" max="3" width="46.109375" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+    <col min="5" max="5" width="45.88671875" customWidth="1"/>
+    <col min="6" max="6" width="46.6640625" customWidth="1"/>
+    <col min="7" max="7" width="38.88671875" customWidth="1"/>
+    <col min="8" max="8" width="40.88671875" customWidth="1"/>
+    <col min="9" max="9" width="25.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -878,7 +880,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>60</v>
       </c>
@@ -907,7 +909,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="2" t="s">
         <v>13</v>
@@ -934,7 +936,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>61</v>
       </c>
@@ -963,7 +965,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="2" t="s">
         <v>15</v>
@@ -990,7 +992,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="2" t="s">
         <v>16</v>
@@ -1017,7 +1019,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="2" t="s">
         <v>17</v>
@@ -1044,7 +1046,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10" s="2" t="s">
         <v>18</v>
@@ -1071,7 +1073,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>62</v>
       </c>
@@ -1100,7 +1102,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>63</v>
       </c>
@@ -1129,7 +1131,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>64</v>
       </c>
@@ -1155,10 +1157,10 @@
         <v>30</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>65</v>
       </c>
@@ -1187,7 +1189,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>66</v>
       </c>
@@ -1216,7 +1218,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>67</v>
       </c>
@@ -1245,7 +1247,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>68</v>
       </c>
@@ -1274,7 +1276,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>69</v>
       </c>
@@ -1303,7 +1305,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>70</v>
       </c>
@@ -1332,7 +1334,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>79</v>
       </c>
@@ -1379,7 +1381,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I20" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I20">
       <formula1>"Passed,Failed,Pending"</formula1>
     </dataValidation>
   </dataValidations>
